--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_14_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_14_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52219.87462788756</v>
+        <v>10391755.05094961</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>52219.87462788756</v>
+        <v>10391755.05094961</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2178.350667525328</v>
+        <v>336861.6724457351</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2178.350667525328</v>
+        <v>336861.6724457351</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1265859832.567616</v>
+        <v>51898204.72198197</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10647.3208143981</v>
+        <v>1171705.804608995</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20448.48032504377</v>
+        <v>2210691.862883385</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30249.63983568943</v>
+        <v>3249677.921157777</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40429.6300129017</v>
+        <v>4303887.358826108</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>50533.12079617456</v>
+        <v>5342873.417100499</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>60636.61157944742</v>
+        <v>6381859.47537489</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>70740.10236272027</v>
+        <v>7420845.533649276</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>80843.59314599313</v>
+        <v>8459831.591923663</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>90947.08392926599</v>
+        <v>9498817.65019805</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>101050.5747125388</v>
+        <v>10537803.70847244</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>111154.0654958117</v>
+        <v>11576789.76674683</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>120907.0084408007</v>
+        <v>12600552.44562729</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>130736.4507797292</v>
+        <v>13639538.50390169</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>140942.4196840353</v>
+        <v>14622942.38622255</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>151148.3885883416</v>
+        <v>15606346.26854339</v>
       </c>
     </row>
   </sheetData>
@@ -27037,28 +27037,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>350</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>350</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>421</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>138</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
